--- a/resources/excels/10-Kratie.xlsx
+++ b/resources/excels/10-Kratie.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="204"/>
+    <workbookView xWindow="7380" yWindow="3580" windowWidth="16380" windowHeight="8200" tabRatio="204" firstSheet="39" activeTab="47"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="393">
   <si>
     <t>RBHraCaNacRkkm&lt;úCa</t>
   </si>
@@ -515,12 +515,6 @@
     <t>bzmsikßaRkec1⁄4Rkug</t>
   </si>
   <si>
-    <t>salaKruekaslü</t>
-  </si>
-  <si>
-    <t>nigvRkitükarext</t>
-  </si>
-  <si>
     <t>salametþyü Rkec1⁄4Rkug</t>
   </si>
   <si>
@@ -1028,12 +1022,6 @@
     <t>GnuviTüal&amp;y sMbUr</t>
   </si>
   <si>
-    <t>pÞ1⁄4elakRsI hIu Kwmhun</t>
-  </si>
-  <si>
-    <t>Pmidnmas</t>
-  </si>
-  <si>
     <t>salabuNücarefñal</t>
   </si>
   <si>
@@ -1166,12 +1154,6 @@
     <t>salaeroneragcRkcMkarekAs</t>
   </si>
   <si>
-    <t>salaeron</t>
-  </si>
-  <si>
-    <t>fgelIeRkamRtBaMglak</t>
-  </si>
-  <si>
     <t>GnuviTüal&amp;y sñÜl</t>
   </si>
   <si>
@@ -1260,6 +1242,15 @@
   </si>
   <si>
     <t>srubextþ</t>
+  </si>
+  <si>
+    <t>salaKruekaslü nigvRkitükarext</t>
+  </si>
+  <si>
+    <t>pÞ1⁄4elakRsI hIu Kwmhun Pmidnmas</t>
+  </si>
+  <si>
+    <t>salaeron fgelIeRkamRtBaMglak</t>
   </si>
 </sst>
 </file>
@@ -1636,7 +1627,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1718,15 +1711,15 @@
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2559,15 +2552,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="G9:K9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="B5:N5"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="G9:K9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3109,15 +3102,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F9:J9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3659,15 +3652,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F9:J9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -4086,15 +4079,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F9:J9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -4431,15 +4424,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F9:J9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -4739,15 +4732,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="G9:K9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="B5:N5"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="G9:K9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5127,15 +5120,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="G9:K9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="B5:N5"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="G9:K9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5148,9 +5141,11 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5236,7 +5231,7 @@
       <c r="A8" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -5428,91 +5423,166 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B14" s="2">
+        <v>87</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>228</v>
+      </c>
+      <c r="K14" s="2">
+        <v>5</v>
+      </c>
+      <c r="L14" s="2">
+        <v>139</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2">
+        <v>11</v>
+      </c>
+      <c r="O14" s="2">
+        <v>389</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D15" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="K15" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="O15" s="2">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="P15" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q15" s="2">
-        <v>390</v>
+        <v>448</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="B16" s="2">
+        <v>89</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>220</v>
+      </c>
+      <c r="K16" s="2">
+        <v>11</v>
+      </c>
+      <c r="L16" s="2">
+        <v>147</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>14</v>
+      </c>
+      <c r="O16" s="2">
+        <v>398</v>
+      </c>
+      <c r="P16" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>402</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B17" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D17" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" s="2">
-        <v>272</v>
+        <v>135</v>
       </c>
       <c r="K17" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L17" s="2">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="O17" s="2">
-        <v>444</v>
+        <v>297</v>
       </c>
       <c r="P17" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q17" s="2">
-        <v>448</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -5520,181 +5590,99 @@
         <v>150</v>
       </c>
       <c r="B18" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D18" s="2">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>200</v>
+      </c>
+      <c r="K18" s="2">
+        <v>8</v>
+      </c>
+      <c r="L18" s="2">
+        <v>139</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
         <v>5</v>
       </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2">
-        <v>220</v>
-      </c>
-      <c r="K18" s="2">
-        <v>11</v>
-      </c>
-      <c r="L18" s="2">
-        <v>147</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2">
-        <v>14</v>
-      </c>
       <c r="O18" s="2">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="P18" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="2">
-        <v>402</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B19" s="2">
-        <v>90</v>
+        <v>32</v>
+      </c>
+      <c r="C19" s="2">
+        <v>8</v>
       </c>
       <c r="D19" s="2">
+        <v>47</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3</v>
+      </c>
+      <c r="F19" s="2">
         <v>9</v>
       </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>2</v>
-      </c>
-      <c r="G19" s="2">
-        <v>135</v>
+      <c r="G19" s="3">
+        <v>1755</v>
       </c>
       <c r="K19" s="2">
-        <v>7</v>
-      </c>
-      <c r="L19" s="2">
-        <v>131</v>
+        <v>47</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1157</v>
       </c>
       <c r="M19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="2">
-        <v>13</v>
-      </c>
-      <c r="O19" s="2">
-        <v>297</v>
+        <v>109</v>
+      </c>
+      <c r="O19" s="3">
+        <v>3128</v>
       </c>
       <c r="P19" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>299</v>
+        <v>24</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>3152</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B20" s="2">
-        <v>91</v>
-      </c>
-      <c r="D20" s="2">
-        <v>13</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>200</v>
-      </c>
-      <c r="K20" s="2">
-        <v>8</v>
-      </c>
-      <c r="L20" s="2">
-        <v>139</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2">
-        <v>5</v>
-      </c>
-      <c r="O20" s="2">
-        <v>365</v>
-      </c>
-      <c r="P20" s="2">
-        <v>1</v>
-      </c>
       <c r="Q20" s="2">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="2">
-        <v>8</v>
-      </c>
-      <c r="D21" s="2">
-        <v>47</v>
-      </c>
-      <c r="E21" s="2">
-        <v>3</v>
-      </c>
-      <c r="F21" s="2">
-        <v>9</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1755</v>
-      </c>
-      <c r="K21" s="2">
-        <v>47</v>
-      </c>
-      <c r="L21" s="3">
-        <v>1157</v>
-      </c>
-      <c r="M21" s="2">
-        <v>1</v>
-      </c>
-      <c r="N21" s="2">
-        <v>109</v>
-      </c>
-      <c r="O21" s="3">
-        <v>3128</v>
-      </c>
-      <c r="P21" s="2">
-        <v>24</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>3152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="Q22" s="2">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="G9:K9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="B5:N5"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="G9:K9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5790,10 +5778,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -5861,7 +5849,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B11" s="2">
         <v>92</v>
@@ -5902,7 +5890,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B12" s="2">
         <v>93</v>
@@ -5943,7 +5931,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B13" s="2">
         <v>94</v>
@@ -5984,7 +5972,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B14" s="2">
         <v>95</v>
@@ -6025,7 +6013,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B15" s="2">
         <v>310</v>
@@ -6066,7 +6054,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B16" s="2">
         <v>332</v>
@@ -6107,7 +6095,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B17" s="2">
         <v>96</v>
@@ -6148,7 +6136,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B18" s="2">
         <v>307</v>
@@ -6189,7 +6177,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B19" s="2">
         <v>97</v>
@@ -6230,7 +6218,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B20" s="2">
         <v>98</v>
@@ -6271,7 +6259,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B21" s="2">
         <v>99</v>
@@ -6312,7 +6300,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B22" s="2">
         <v>100</v>
@@ -6399,15 +6387,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F9:J9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C5:M5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -6420,9 +6408,11 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6506,10 +6496,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -6577,7 +6567,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B11" s="2">
         <v>101</v>
@@ -6618,7 +6608,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B12" s="2">
         <v>102</v>
@@ -6659,7 +6649,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B13" s="2">
         <v>321</v>
@@ -6700,7 +6690,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B14" s="2">
         <v>103</v>
@@ -6741,11 +6731,35 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B15" s="2">
         <v>104</v>
       </c>
+      <c r="D15" s="2">
+        <v>31</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>309</v>
+      </c>
+      <c r="K15" s="2">
+        <v>12</v>
+      </c>
+      <c r="L15" s="2">
+        <v>114</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>25</v>
+      </c>
       <c r="O15" s="2">
         <v>492</v>
       </c>
@@ -6757,88 +6771,62 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
       <c r="D16" s="2">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="E16" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>309</v>
+        <v>8</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1476</v>
       </c>
       <c r="K16" s="2">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="L16" s="2">
-        <v>114</v>
+        <v>756</v>
       </c>
       <c r="M16" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N16" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="2">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2">
-        <v>78</v>
-      </c>
-      <c r="E17" s="2">
-        <v>10</v>
-      </c>
-      <c r="F17" s="2">
-        <v>8</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1476</v>
-      </c>
-      <c r="K17" s="2">
-        <v>67</v>
-      </c>
-      <c r="L17" s="2">
-        <v>756</v>
-      </c>
-      <c r="M17" s="2">
-        <v>4</v>
-      </c>
-      <c r="N17" s="2">
         <v>89</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O16" s="3">
         <v>2488</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P16" s="2">
         <v>19</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q16" s="3">
         <v>2507</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="Q18" s="2">
+    <row r="17" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q17" s="2">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="G9:K9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="B5:N5"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="G9:K9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -7297,15 +7285,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F9:J9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -7402,10 +7390,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -7473,7 +7461,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B11" s="2">
         <v>105</v>
@@ -7514,7 +7502,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B12" s="2">
         <v>106</v>
@@ -7555,7 +7543,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B13" s="2">
         <v>107</v>
@@ -7596,7 +7584,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B14" s="2">
         <v>108</v>
@@ -7637,7 +7625,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B15" s="2">
         <v>109</v>
@@ -7678,7 +7666,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B16" s="2">
         <v>110</v>
@@ -7719,7 +7707,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B17" s="2">
         <v>111</v>
@@ -7806,15 +7794,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F9:J9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -7910,10 +7898,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -7981,7 +7969,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B11" s="2">
         <v>112</v>
@@ -8022,7 +8010,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B12" s="2">
         <v>289</v>
@@ -8063,7 +8051,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B13" s="2">
         <v>113</v>
@@ -8104,7 +8092,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B14" s="2">
         <v>322</v>
@@ -8145,7 +8133,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B15" s="2">
         <v>114</v>
@@ -8186,7 +8174,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B16" s="2">
         <v>115</v>
@@ -8273,15 +8261,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F9:J9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C5:M5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -8380,10 +8368,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -8451,7 +8439,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B11" s="2">
         <v>116</v>
@@ -8492,7 +8480,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B12" s="2">
         <v>117</v>
@@ -8533,7 +8521,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B13" s="2">
         <v>118</v>
@@ -8574,7 +8562,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B14" s="2">
         <v>267</v>
@@ -8615,7 +8603,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B15" s="2">
         <v>119</v>
@@ -8656,7 +8644,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B16" s="2">
         <v>120</v>
@@ -8743,15 +8731,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="G9:K9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="B5:N5"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="G9:K9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -8849,10 +8837,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -8920,7 +8908,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B11" s="2">
         <v>121</v>
@@ -8961,7 +8949,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B12" s="2">
         <v>122</v>
@@ -9002,7 +8990,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B13" s="2">
         <v>123</v>
@@ -9043,7 +9031,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B14" s="2">
         <v>285</v>
@@ -9084,7 +9072,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B15" s="2">
         <v>124</v>
@@ -9125,7 +9113,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B16" s="2">
         <v>125</v>
@@ -9166,7 +9154,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B17" s="2">
         <v>286</v>
@@ -9207,7 +9195,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B18" s="2">
         <v>126</v>
@@ -9248,7 +9236,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B19" s="2">
         <v>127</v>
@@ -9376,15 +9364,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F9:J9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -9399,7 +9387,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9482,16 +9472,16 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -9560,7 +9550,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="2">
@@ -9602,7 +9592,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C13" s="2">
         <v>129</v>
@@ -9643,7 +9633,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C14" s="2">
         <v>130</v>
@@ -9684,7 +9674,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="2">
@@ -9693,6 +9683,12 @@
       <c r="D15" s="2">
         <v>2</v>
       </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
       <c r="G15" s="2">
         <v>176</v>
       </c>
@@ -9720,7 +9716,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="2">
@@ -9762,7 +9758,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C17" s="2">
         <v>133</v>
@@ -9803,7 +9799,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="2">
@@ -9845,7 +9841,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C19" s="2">
         <v>135</v>
@@ -9886,7 +9882,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C20" s="2">
         <v>136</v>
@@ -9927,7 +9923,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C21" s="2">
         <v>333</v>
@@ -10124,10 +10120,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -10195,7 +10191,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B11" s="2">
         <v>137</v>
@@ -10236,7 +10232,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B12" s="2">
         <v>138</v>
@@ -10277,7 +10273,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B13" s="2">
         <v>139</v>
@@ -10318,7 +10314,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B14" s="2">
         <v>140</v>
@@ -10359,7 +10355,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B15" s="2">
         <v>315</v>
@@ -10400,7 +10396,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B16" s="2">
         <v>141</v>
@@ -10441,7 +10437,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B17" s="2">
         <v>142</v>
@@ -10482,7 +10478,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B18" s="2">
         <v>143</v>
@@ -10523,7 +10519,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B19" s="2">
         <v>144</v>
@@ -10564,7 +10560,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B20" s="2">
         <v>145</v>
@@ -10605,7 +10601,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B21" s="2">
         <v>146</v>
@@ -10646,7 +10642,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B22" s="2">
         <v>147</v>
@@ -10733,15 +10729,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F9:J9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C5:M5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -10839,10 +10835,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -10910,7 +10906,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B11" s="2">
         <v>148</v>
@@ -10951,7 +10947,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B12" s="2">
         <v>149</v>
@@ -10992,7 +10988,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B13" s="2">
         <v>150</v>
@@ -11033,7 +11029,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B14" s="2">
         <v>287</v>
@@ -11074,7 +11070,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B15" s="2">
         <v>151</v>
@@ -11115,7 +11111,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B16" s="2">
         <v>298</v>
@@ -11156,7 +11152,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B17" s="2">
         <v>152</v>
@@ -11243,15 +11239,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F9:J9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -11350,10 +11346,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -11421,7 +11417,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B11" s="2">
         <v>153</v>
@@ -11462,7 +11458,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B12" s="2">
         <v>154</v>
@@ -11503,7 +11499,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B13" s="2">
         <v>155</v>
@@ -11590,15 +11586,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F9:J9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -11613,7 +11609,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11696,10 +11694,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -11762,12 +11760,12 @@
         <v>26</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B11" s="2">
         <v>156</v>
@@ -11808,7 +11806,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B12" s="2">
         <v>157</v>
@@ -11849,7 +11847,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B13" s="2">
         <v>158</v>
@@ -11890,7 +11888,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B14" s="2">
         <v>299</v>
@@ -11931,7 +11929,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B15" s="2">
         <v>159</v>
@@ -11972,7 +11970,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B16" s="2">
         <v>160</v>
@@ -12013,7 +12011,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B17" s="2">
         <v>161</v>
@@ -12054,7 +12052,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B18" s="2">
         <v>162</v>
@@ -12095,7 +12093,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B19" s="2">
         <v>163</v>
@@ -12136,7 +12134,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B20" s="2">
         <v>300</v>
@@ -12177,7 +12175,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B21" s="2">
         <v>164</v>
@@ -12218,7 +12216,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B22" s="2">
         <v>165</v>
@@ -12264,15 +12262,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F9:J9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -12285,9 +12283,11 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12354,19 +12354,55 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F7" s="1" t="s">
-        <v>7</v>
+      <c r="A7" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" s="2">
+        <v>166</v>
+      </c>
+      <c r="C7" s="2">
+        <v>52</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>134</v>
+      </c>
+      <c r="G7" s="2">
+        <v>29</v>
+      </c>
+      <c r="H7" s="2">
+        <v>57</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>8</v>
+      </c>
+      <c r="K7" s="2">
+        <v>281</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2</v>
+      </c>
+      <c r="M7" s="2">
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B8" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C8" s="2">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -12375,155 +12411,114 @@
         <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="G8" s="2">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H8" s="2">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
       </c>
       <c r="J8" s="2">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="K8" s="2">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="L8" s="2">
         <v>2</v>
       </c>
       <c r="M8" s="2">
-        <v>283</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B9" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C9" s="2">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="F9" s="2">
-        <v>199</v>
+        <v>290</v>
       </c>
       <c r="G9" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H9" s="2">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
       <c r="J9" s="2">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K9" s="2">
-        <v>314</v>
+        <v>485</v>
       </c>
       <c r="L9" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M9" s="2">
-        <v>316</v>
+        <v>491</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>246</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2">
-        <v>4</v>
+        <v>273</v>
       </c>
       <c r="D10" s="2">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <v>290</v>
+        <v>28</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3015</v>
       </c>
       <c r="G10" s="2">
-        <v>16</v>
-      </c>
-      <c r="H10" s="2">
-        <v>149</v>
+        <v>349</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1325</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J10" s="2">
-        <v>24</v>
-      </c>
-      <c r="K10" s="2">
-        <v>485</v>
+        <v>294</v>
+      </c>
+      <c r="K10" s="3">
+        <v>5316</v>
       </c>
       <c r="L10" s="2">
-        <v>6</v>
-      </c>
-      <c r="M10" s="2">
-        <v>491</v>
+        <v>34</v>
+      </c>
+      <c r="M10" s="3">
+        <v>5350</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="2">
-        <v>15</v>
-      </c>
-      <c r="C11" s="2">
-        <v>273</v>
-      </c>
-      <c r="D11" s="2">
-        <v>23</v>
-      </c>
-      <c r="E11" s="2">
-        <v>28</v>
-      </c>
-      <c r="F11" s="3">
-        <v>3015</v>
-      </c>
-      <c r="G11" s="2">
-        <v>349</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1325</v>
-      </c>
-      <c r="I11" s="2">
-        <v>9</v>
-      </c>
-      <c r="J11" s="2">
-        <v>294</v>
-      </c>
-      <c r="K11" s="3">
-        <v>5316</v>
-      </c>
-      <c r="L11" s="2">
-        <v>34</v>
-      </c>
-      <c r="M11" s="3">
-        <v>5350</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M12" s="2">
+      <c r="M11" s="2">
         <v>29</v>
       </c>
     </row>
@@ -13117,15 +13112,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F9:J9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -13226,10 +13221,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -13297,7 +13292,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B11" s="2">
         <v>169</v>
@@ -13338,7 +13333,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B12" s="2">
         <v>268</v>
@@ -13379,7 +13374,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B13" s="2">
         <v>170</v>
@@ -13420,7 +13415,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B14" s="2">
         <v>171</v>
@@ -13461,7 +13456,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B15" s="2">
         <v>172</v>
@@ -13502,7 +13497,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B16" s="2">
         <v>173</v>
@@ -13543,7 +13538,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B17" s="2">
         <v>174</v>
@@ -13584,7 +13579,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B18" s="2">
         <v>175</v>
@@ -13671,15 +13666,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="G9:K9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="B5:N5"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="G9:K9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -13778,10 +13773,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -13849,7 +13844,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B11" s="2">
         <v>176</v>
@@ -13890,7 +13885,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B12" s="2">
         <v>177</v>
@@ -13931,7 +13926,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B13" s="2">
         <v>178</v>
@@ -13972,7 +13967,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B14" s="2">
         <v>179</v>
@@ -14013,7 +14008,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B15" s="2">
         <v>269</v>
@@ -14054,7 +14049,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B16" s="2">
         <v>180</v>
@@ -14095,7 +14090,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B17" s="2">
         <v>181</v>
@@ -14136,7 +14131,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B18" s="2">
         <v>182</v>
@@ -14177,7 +14172,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B19" s="2">
         <v>183</v>
@@ -14264,15 +14259,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F9:J9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -14371,10 +14366,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -14442,7 +14437,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B11" s="2">
         <v>184</v>
@@ -14483,7 +14478,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B12" s="2">
         <v>185</v>
@@ -14524,7 +14519,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B13" s="2">
         <v>270</v>
@@ -14565,7 +14560,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B14" s="2">
         <v>186</v>
@@ -14606,7 +14601,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B15" s="2">
         <v>288</v>
@@ -14647,7 +14642,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B16" s="2">
         <v>187</v>
@@ -14688,7 +14683,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B17" s="2">
         <v>188</v>
@@ -14729,7 +14724,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B18" s="2">
         <v>189</v>
@@ -14857,15 +14852,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F9:J9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -14880,7 +14875,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14964,16 +14961,16 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -15042,7 +15039,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C12" s="2">
         <v>323</v>
@@ -15083,7 +15080,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C13" s="2">
         <v>190</v>
@@ -15124,7 +15121,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C14" s="2">
         <v>191</v>
@@ -15165,7 +15162,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C15" s="2">
         <v>324</v>
@@ -15361,10 +15358,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -15432,7 +15429,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B11" s="2">
         <v>192</v>
@@ -15473,7 +15470,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B12" s="2">
         <v>193</v>
@@ -15514,7 +15511,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B13" s="2">
         <v>301</v>
@@ -15555,7 +15552,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B14" s="2">
         <v>194</v>
@@ -15596,7 +15593,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B15" s="2">
         <v>195</v>
@@ -15637,7 +15634,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B16" s="2">
         <v>197</v>
@@ -15678,7 +15675,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B17" s="2">
         <v>196</v>
@@ -15719,7 +15716,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B18" s="2">
         <v>334</v>
@@ -15806,15 +15803,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F9:J9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="B5:M5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -15913,10 +15910,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -15984,7 +15981,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B11" s="2">
         <v>198</v>
@@ -16025,7 +16022,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B12" s="2">
         <v>302</v>
@@ -16066,7 +16063,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B13" s="2">
         <v>199</v>
@@ -16107,7 +16104,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B14" s="2">
         <v>200</v>
@@ -16194,15 +16191,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F9:J9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -16301,10 +16298,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -16372,7 +16369,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B11" s="2">
         <v>201</v>
@@ -16413,7 +16410,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B12" s="2">
         <v>202</v>
@@ -16454,7 +16451,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B13" s="2">
         <v>203</v>
@@ -16495,7 +16492,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B14" s="2">
         <v>204</v>
@@ -16582,15 +16579,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F9:J9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -16690,10 +16687,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -16761,7 +16758,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B11" s="2">
         <v>205</v>
@@ -16802,7 +16799,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B12" s="2">
         <v>206</v>
@@ -16843,7 +16840,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B13" s="2">
         <v>207</v>
@@ -16884,7 +16881,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B14" s="2">
         <v>208</v>
@@ -16925,7 +16922,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B15" s="2">
         <v>314</v>
@@ -17012,15 +17009,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F9:J9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="B5:M5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -17119,10 +17116,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -17190,7 +17187,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B11" s="2">
         <v>209</v>
@@ -17231,7 +17228,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B12" s="2">
         <v>210</v>
@@ -17272,7 +17269,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B13" s="2">
         <v>211</v>
@@ -17313,7 +17310,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B14" s="2">
         <v>212</v>
@@ -17354,7 +17351,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B15" s="2">
         <v>213</v>
@@ -17441,15 +17438,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F9:J9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -17462,9 +17459,11 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -17548,10 +17547,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -17619,7 +17618,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B11" s="2">
         <v>214</v>
@@ -17660,7 +17659,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B12" s="2">
         <v>215</v>
@@ -17701,7 +17700,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B13" s="2">
         <v>216</v>
@@ -17742,7 +17741,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B14" s="2">
         <v>290</v>
@@ -17783,7 +17782,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B15" s="2">
         <v>217</v>
@@ -17824,7 +17823,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B16" s="2">
         <v>218</v>
@@ -17865,232 +17864,225 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>318</v>
+        <v>391</v>
+      </c>
+      <c r="B17" s="2">
+        <v>219</v>
+      </c>
+      <c r="C17" s="2">
+        <v>40</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2">
+        <v>222</v>
+      </c>
+      <c r="J17" s="2">
+        <v>16</v>
+      </c>
+      <c r="K17" s="2">
+        <v>63</v>
+      </c>
+      <c r="L17" s="2">
+        <v>4</v>
+      </c>
+      <c r="M17" s="2">
+        <v>14</v>
+      </c>
+      <c r="N17" s="2">
+        <v>365</v>
+      </c>
+      <c r="O17" s="2">
+        <v>13</v>
+      </c>
+      <c r="P17" s="2">
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>316</v>
+      </c>
       <c r="B18" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C18" s="2">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F18" s="2">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="J18" s="2">
+        <v>8</v>
+      </c>
+      <c r="K18" s="2">
+        <v>100</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
         <v>16</v>
       </c>
-      <c r="K18" s="2">
-        <v>63</v>
-      </c>
-      <c r="L18" s="2">
-        <v>4</v>
-      </c>
-      <c r="M18" s="2">
-        <v>14</v>
-      </c>
       <c r="N18" s="2">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="O18" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="P18" s="2">
-        <v>378</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
+      </c>
+      <c r="B19" s="2">
+        <v>325</v>
+      </c>
+      <c r="C19" s="2">
+        <v>41</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>89</v>
+      </c>
+      <c r="J19" s="2">
+        <v>4</v>
+      </c>
+      <c r="K19" s="2">
+        <v>58</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2">
+        <v>193</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B20" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C20" s="2">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D20" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="2">
-        <v>246</v>
+        <v>100</v>
       </c>
       <c r="J20" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K20" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="L20" s="2">
         <v>0</v>
       </c>
       <c r="M20" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N20" s="2">
-        <v>405</v>
+        <v>201</v>
       </c>
       <c r="O20" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P20" s="2">
-        <v>412</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>321</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2">
-        <v>325</v>
+        <v>10</v>
       </c>
       <c r="C21" s="2">
+        <v>361</v>
+      </c>
+      <c r="D21" s="2">
+        <v>15</v>
+      </c>
+      <c r="E21" s="2">
+        <v>21</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1928</v>
+      </c>
+      <c r="J21" s="2">
+        <v>161</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1161</v>
+      </c>
+      <c r="L21" s="2">
+        <v>9</v>
+      </c>
+      <c r="M21" s="2">
+        <v>176</v>
+      </c>
+      <c r="N21" s="3">
+        <v>3832</v>
+      </c>
+      <c r="O21" s="2">
         <v>41</v>
       </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>89</v>
-      </c>
-      <c r="J21" s="2">
-        <v>4</v>
-      </c>
-      <c r="K21" s="2">
-        <v>58</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2">
-        <v>1</v>
-      </c>
-      <c r="N21" s="2">
-        <v>193</v>
-      </c>
-      <c r="O21" s="2">
-        <v>0</v>
-      </c>
-      <c r="P21" s="2">
-        <v>193</v>
+      <c r="P21" s="3">
+        <v>3873</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B22" s="2">
-        <v>221</v>
-      </c>
-      <c r="C22" s="2">
-        <v>37</v>
-      </c>
-      <c r="D22" s="2">
-        <v>4</v>
-      </c>
-      <c r="E22" s="2">
-        <v>2</v>
-      </c>
-      <c r="F22" s="2">
-        <v>100</v>
-      </c>
-      <c r="J22" s="2">
-        <v>13</v>
-      </c>
-      <c r="K22" s="2">
-        <v>44</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2">
-        <v>1</v>
-      </c>
-      <c r="N22" s="2">
-        <v>201</v>
-      </c>
-      <c r="O22" s="2">
-        <v>2</v>
-      </c>
       <c r="P22" s="2">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="2">
-        <v>10</v>
-      </c>
-      <c r="C23" s="2">
-        <v>361</v>
-      </c>
-      <c r="D23" s="2">
-        <v>15</v>
-      </c>
-      <c r="E23" s="2">
-        <v>21</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1928</v>
-      </c>
-      <c r="J23" s="2">
-        <v>161</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1161</v>
-      </c>
-      <c r="L23" s="2">
-        <v>9</v>
-      </c>
-      <c r="M23" s="2">
-        <v>176</v>
-      </c>
-      <c r="N23" s="3">
-        <v>3832</v>
-      </c>
-      <c r="O23" s="2">
-        <v>41</v>
-      </c>
-      <c r="P23" s="3">
-        <v>3873</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="P24" s="2">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F9:J9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -18430,15 +18422,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="G9:K9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="B5:N5"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="G9:K9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -18537,10 +18529,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -18608,7 +18600,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B11" s="2">
         <v>222</v>
@@ -18649,7 +18641,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B12" s="2">
         <v>271</v>
@@ -18690,7 +18682,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B13" s="2">
         <v>223</v>
@@ -18731,7 +18723,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B14" s="2">
         <v>272</v>
@@ -18772,7 +18764,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B15" s="2">
         <v>224</v>
@@ -18813,7 +18805,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B16" s="2">
         <v>303</v>
@@ -18854,7 +18846,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B17" s="2">
         <v>225</v>
@@ -18895,7 +18887,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B18" s="2">
         <v>226</v>
@@ -18982,15 +18974,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F9:J9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -19089,10 +19081,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -19160,7 +19152,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B11" s="2">
         <v>291</v>
@@ -19201,7 +19193,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B12" s="2">
         <v>312</v>
@@ -19242,7 +19234,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B13" s="2">
         <v>227</v>
@@ -19283,7 +19275,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B14" s="2">
         <v>326</v>
@@ -19324,7 +19316,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B15" s="2">
         <v>228</v>
@@ -19365,7 +19357,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B16" s="2">
         <v>229</v>
@@ -19452,15 +19444,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F9:J9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -19559,10 +19551,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -19630,7 +19622,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B11" s="2">
         <v>230</v>
@@ -19671,7 +19663,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B12" s="2">
         <v>231</v>
@@ -19712,7 +19704,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B13" s="2">
         <v>292</v>
@@ -19753,7 +19745,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B14" s="2">
         <v>232</v>
@@ -19881,15 +19873,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F9:J9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -19904,7 +19896,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19988,16 +19982,16 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>343</v>
+      <c r="A8" s="1" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>340</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -20066,7 +20060,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C12" s="2">
         <v>233</v>
@@ -20107,7 +20101,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C13" s="2">
         <v>234</v>
@@ -20148,7 +20142,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C14" s="2">
         <v>293</v>
@@ -20189,7 +20183,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C15" s="2">
         <v>235</v>
@@ -20230,7 +20224,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C16" s="2">
         <v>236</v>
@@ -20271,7 +20265,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C17" s="2">
         <v>237</v>
@@ -20312,7 +20306,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C18" s="2">
         <v>327</v>
@@ -20353,7 +20347,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C19" s="2">
         <v>238</v>
@@ -20548,10 +20542,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -20619,7 +20613,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B11" s="2">
         <v>239</v>
@@ -20660,7 +20654,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B12" s="2">
         <v>304</v>
@@ -20701,7 +20695,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B13" s="2">
         <v>240</v>
@@ -20742,7 +20736,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B14" s="2">
         <v>241</v>
@@ -20783,7 +20777,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B15" s="2">
         <v>273</v>
@@ -20824,7 +20818,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B16" s="2">
         <v>242</v>
@@ -20865,7 +20859,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B17" s="2">
         <v>313</v>
@@ -20952,15 +20946,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F9:J9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -20973,9 +20967,11 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -21059,10 +21055,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -21130,7 +21126,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B11" s="2">
         <v>243</v>
@@ -21171,7 +21167,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B12" s="2">
         <v>244</v>
@@ -21212,7 +21208,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B13" s="2">
         <v>305</v>
@@ -21253,355 +21249,348 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>364</v>
+        <v>392</v>
+      </c>
+      <c r="B14" s="2">
+        <v>245</v>
+      </c>
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>140</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2">
+        <v>21</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>5</v>
+      </c>
+      <c r="N14" s="2">
+        <v>181</v>
+      </c>
+      <c r="O14" s="2">
+        <v>2</v>
+      </c>
+      <c r="P14" s="2">
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>360</v>
+      </c>
       <c r="B15" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C15" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
       </c>
       <c r="E15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="2">
-        <v>140</v>
+        <v>225</v>
       </c>
       <c r="J15" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K15" s="2">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N15" s="2">
-        <v>181</v>
+        <v>334</v>
       </c>
       <c r="O15" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P15" s="2">
-        <v>183</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
+      </c>
+      <c r="B16" s="2">
+        <v>247</v>
+      </c>
+      <c r="C16" s="2">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>181</v>
+      </c>
+      <c r="J16" s="2">
+        <v>9</v>
+      </c>
+      <c r="K16" s="2">
+        <v>102</v>
+      </c>
+      <c r="L16" s="2">
+        <v>3</v>
+      </c>
+      <c r="M16" s="2">
+        <v>17</v>
+      </c>
+      <c r="N16" s="2">
+        <v>323</v>
+      </c>
+      <c r="O16" s="2">
+        <v>3</v>
+      </c>
+      <c r="P16" s="2">
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B17" s="2">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="C17" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
       </c>
       <c r="E17" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="2">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="J17" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K17" s="2">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="L17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N17" s="2">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="O17" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>342</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B18" s="2">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="C18" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18" s="2">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="J18" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K18" s="2">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="L18" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="N18" s="2">
-        <v>323</v>
+        <v>386</v>
       </c>
       <c r="O18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P18" s="2">
-        <v>326</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B19" s="2">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="C19" s="2">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D19" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E19" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19" s="2">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="J19" s="2">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="K19" s="2">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="L19" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M19" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N19" s="2">
-        <v>360</v>
+        <v>525</v>
       </c>
       <c r="O19" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P19" s="2">
-        <v>360</v>
+        <v>535</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B20" s="2">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="C20" s="2">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D20" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" s="2">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="J20" s="2">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="K20" s="2">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="L20" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M20" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N20" s="2">
-        <v>386</v>
+        <v>257</v>
       </c>
       <c r="O20" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P20" s="2">
-        <v>390</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B21" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C21" s="2">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D21" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E21" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F21" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="J21" s="2">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="K21" s="2">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="L21" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M21" s="2">
         <v>17</v>
       </c>
       <c r="N21" s="2">
-        <v>525</v>
+        <v>370</v>
       </c>
       <c r="O21" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P21" s="2">
-        <v>535</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B22" s="2">
-        <v>294</v>
-      </c>
-      <c r="C22" s="2">
-        <v>22</v>
-      </c>
-      <c r="D22" s="2">
-        <v>3</v>
-      </c>
-      <c r="E22" s="2">
-        <v>4</v>
-      </c>
-      <c r="F22" s="2">
-        <v>101</v>
-      </c>
-      <c r="J22" s="2">
-        <v>41</v>
-      </c>
-      <c r="K22" s="2">
-        <v>73</v>
-      </c>
-      <c r="L22" s="2">
-        <v>4</v>
-      </c>
-      <c r="M22" s="2">
-        <v>9</v>
-      </c>
-      <c r="N22" s="2">
-        <v>257</v>
-      </c>
-      <c r="O22" s="2">
-        <v>10</v>
-      </c>
       <c r="P22" s="2">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B23" s="2">
-        <v>249</v>
-      </c>
-      <c r="C23" s="2">
-        <v>21</v>
-      </c>
-      <c r="D23" s="2">
-        <v>5</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2</v>
-      </c>
-      <c r="F23" s="2">
-        <v>218</v>
-      </c>
-      <c r="J23" s="2">
-        <v>50</v>
-      </c>
-      <c r="K23" s="2">
-        <v>56</v>
-      </c>
-      <c r="L23" s="2">
-        <v>1</v>
-      </c>
-      <c r="M23" s="2">
-        <v>17</v>
-      </c>
-      <c r="N23" s="2">
-        <v>370</v>
-      </c>
-      <c r="O23" s="2">
-        <v>15</v>
-      </c>
-      <c r="P23" s="2">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="P24" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F9:J9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -21614,9 +21603,11 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -21683,176 +21674,171 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F7" s="1" t="s">
-        <v>7</v>
+      <c r="A7" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B7" s="2">
+        <v>250</v>
+      </c>
+      <c r="C7" s="2">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>253</v>
+      </c>
+      <c r="G7" s="2">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2">
+        <v>114</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>26</v>
+      </c>
+      <c r="K7" s="2">
+        <v>468</v>
+      </c>
+      <c r="L7" s="2">
+        <v>4</v>
+      </c>
+      <c r="M7" s="2">
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B8" s="2">
-        <v>250</v>
+        <v>295</v>
       </c>
       <c r="C8" s="2">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2">
-        <v>253</v>
+        <v>105</v>
       </c>
       <c r="G8" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H8" s="2">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="I8" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="K8" s="2">
-        <v>468</v>
+        <v>186</v>
       </c>
       <c r="L8" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
-        <v>472</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B9" s="2">
-        <v>295</v>
+        <v>251</v>
       </c>
       <c r="C9" s="2">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="G9" s="2">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="H9" s="2">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" s="2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K9" s="2">
-        <v>186</v>
+        <v>467</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M9" s="2">
-        <v>186</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>372</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2">
-        <v>251</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2">
-        <v>38</v>
+        <v>305</v>
       </c>
       <c r="D10" s="2">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2">
-        <v>7</v>
-      </c>
-      <c r="F10" s="2">
-        <v>178</v>
+        <v>45</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2882</v>
       </c>
       <c r="G10" s="2">
-        <v>50</v>
-      </c>
-      <c r="H10" s="2">
-        <v>144</v>
+        <v>416</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1214</v>
       </c>
       <c r="I10" s="2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="J10" s="2">
-        <v>40</v>
-      </c>
-      <c r="K10" s="2">
-        <v>467</v>
+        <v>247</v>
+      </c>
+      <c r="K10" s="3">
+        <v>5180</v>
       </c>
       <c r="L10" s="2">
-        <v>8</v>
-      </c>
-      <c r="M10" s="2">
-        <v>475</v>
+        <v>88</v>
+      </c>
+      <c r="M10" s="3">
+        <v>5268</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="2">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2">
-        <v>305</v>
-      </c>
-      <c r="D11" s="2">
-        <v>47</v>
-      </c>
-      <c r="E11" s="2">
-        <v>45</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2882</v>
-      </c>
-      <c r="G11" s="2">
-        <v>416</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1214</v>
-      </c>
-      <c r="I11" s="2">
-        <v>24</v>
-      </c>
-      <c r="J11" s="2">
-        <v>247</v>
-      </c>
-      <c r="K11" s="3">
-        <v>5180</v>
-      </c>
-      <c r="L11" s="2">
-        <v>88</v>
-      </c>
-      <c r="M11" s="3">
-        <v>5268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M12" s="2">
+      <c r="M11" s="2">
         <v>46</v>
       </c>
     </row>
@@ -21877,7 +21863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A6" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -21961,10 +21947,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -22032,7 +22018,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B11" s="2">
         <v>252</v>
@@ -22073,7 +22059,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B12" s="2">
         <v>328</v>
@@ -22114,7 +22100,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B13" s="2">
         <v>253</v>
@@ -22155,7 +22141,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B14" s="2">
         <v>329</v>
@@ -22196,7 +22182,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B15" s="2">
         <v>254</v>
@@ -22237,7 +22223,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B16" s="2">
         <v>306</v>
@@ -22278,7 +22264,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B17" s="2">
         <v>296</v>
@@ -22319,7 +22305,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B18" s="2">
         <v>255</v>
@@ -22360,7 +22346,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B19" s="2">
         <v>256</v>
@@ -22401,7 +22387,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B20" s="2">
         <v>311</v>
@@ -22442,7 +22428,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B21" s="2">
         <v>257</v>
@@ -22483,7 +22469,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B22" s="2">
         <v>297</v>
@@ -22529,15 +22515,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F9:J9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -22550,9 +22536,11 @@
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -22619,176 +22607,171 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F7" s="1" t="s">
-        <v>7</v>
+      <c r="A7" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B7" s="2">
+        <v>330</v>
+      </c>
+      <c r="C7" s="2">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>244</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>90</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3</v>
+      </c>
+      <c r="J7" s="2">
+        <v>54</v>
+      </c>
+      <c r="K7" s="2">
+        <v>427</v>
+      </c>
+      <c r="L7" s="2">
+        <v>6</v>
+      </c>
+      <c r="M7" s="2">
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B8" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C8" s="2">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="G8" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H8" s="2">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="I8" s="2">
         <v>3</v>
       </c>
       <c r="J8" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="K8" s="2">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="L8" s="2">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M8" s="2">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B9" s="2">
-        <v>331</v>
+        <v>258</v>
       </c>
       <c r="C9" s="2">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E9" s="2">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2">
+        <v>151</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2">
+        <v>54</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>11</v>
+      </c>
+      <c r="K9" s="2">
+        <v>236</v>
+      </c>
+      <c r="L9" s="2">
         <v>5</v>
       </c>
-      <c r="F9" s="2">
-        <v>212</v>
-      </c>
-      <c r="G9" s="2">
-        <v>7</v>
-      </c>
-      <c r="H9" s="2">
-        <v>97</v>
-      </c>
-      <c r="I9" s="2">
-        <v>3</v>
-      </c>
-      <c r="J9" s="2">
-        <v>38</v>
-      </c>
-      <c r="K9" s="2">
-        <v>408</v>
-      </c>
-      <c r="L9" s="2">
-        <v>16</v>
-      </c>
       <c r="M9" s="2">
-        <v>424</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>386</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2">
-        <v>11</v>
+        <v>436</v>
       </c>
       <c r="D10" s="2">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2">
-        <v>4</v>
-      </c>
-      <c r="F10" s="2">
-        <v>151</v>
+        <v>56</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2598</v>
       </c>
       <c r="G10" s="2">
-        <v>3</v>
-      </c>
-      <c r="H10" s="2">
-        <v>54</v>
+        <v>117</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1395</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J10" s="2">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2">
-        <v>236</v>
+        <v>366</v>
+      </c>
+      <c r="K10" s="3">
+        <v>5071</v>
       </c>
       <c r="L10" s="2">
-        <v>5</v>
-      </c>
-      <c r="M10" s="2">
-        <v>241</v>
+        <v>173</v>
+      </c>
+      <c r="M10" s="3">
+        <v>5244</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="2">
-        <v>15</v>
-      </c>
-      <c r="C11" s="2">
-        <v>436</v>
-      </c>
-      <c r="D11" s="2">
-        <v>65</v>
-      </c>
-      <c r="E11" s="2">
-        <v>56</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2598</v>
-      </c>
-      <c r="G11" s="2">
-        <v>117</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1395</v>
-      </c>
-      <c r="I11" s="2">
-        <v>38</v>
-      </c>
-      <c r="J11" s="2">
-        <v>366</v>
-      </c>
-      <c r="K11" s="3">
-        <v>5071</v>
-      </c>
-      <c r="L11" s="2">
-        <v>173</v>
-      </c>
-      <c r="M11" s="3">
-        <v>5244</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M12" s="2">
+      <c r="M11" s="2">
         <v>48</v>
       </c>
     </row>
@@ -22897,10 +22880,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -22963,12 +22946,12 @@
         <v>26</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B11" s="2">
         <v>259</v>
@@ -23009,7 +22992,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B12" s="2">
         <v>276</v>
@@ -23050,7 +23033,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B13" s="2">
         <v>260</v>
@@ -23091,7 +23074,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B14" s="2">
         <v>277</v>
@@ -23132,7 +23115,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B15" s="2">
         <v>261</v>
@@ -23173,7 +23156,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B16" s="2">
         <v>278</v>
@@ -23214,7 +23197,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B17" s="2">
         <v>262</v>
@@ -23255,7 +23238,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B18" s="2">
         <v>263</v>
@@ -23378,7 +23361,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B21" s="2">
         <v>334</v>
@@ -23424,15 +23407,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F9:J9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -23893,15 +23876,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F9:J9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -24362,15 +24345,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="G9:K9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="B5:N5"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="G9:K9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -24993,15 +24976,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F9:J9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -25625,15 +25608,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="F9:J9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="B5:M5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="F9:J9"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -25648,7 +25631,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -25730,15 +25715,15 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="1" t="s">
         <v>90</v>
       </c>
     </row>
